--- a/charecter_data/HSK_3.xlsx
+++ b/charecter_data/HSK_3.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicholas.rossi/Documents/Personal/magic_mirror/MagicMirror/modules/HanziWriter/charecter_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03E9C40D-695B-1745-9A3D-E0651F28BC20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A001A5F-ABDD-2C42-B4F3-B22F1E4413C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="1256">
   <si>
     <t>Simplified</t>
   </si>
@@ -199,9 +209,6 @@
     <t>角</t>
   </si>
   <si>
-    <t>role (theater)</t>
-  </si>
-  <si>
     <t>鼻子</t>
   </si>
   <si>
@@ -2498,9 +2505,6 @@
   </si>
   <si>
     <t>young</t>
-  </si>
-  <si>
-    <t>horn; angle; unit of money (1/10 yuan); corner (Kangxi radical 148)</t>
   </si>
   <si>
     <t>nose</t>
@@ -3718,12 +3722,833 @@
   <si>
     <t>This program is on only once a week.</t>
   </si>
+  <si>
+    <t>弟弟不但很聪明，而且很爱学习</t>
+  </si>
+  <si>
+    <t>Little brother not only is smart, but also likes to study.</t>
+  </si>
+  <si>
+    <r>
+      <t>他向我说明了他的观点。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>He stated his views to me.</t>
+  </si>
+  <si>
+    <r>
+      <t>每天有超过三百个航班在这里起飞。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Over 300 airplanes take off here everyday.</t>
+  </si>
+  <si>
+    <t>太阳，星星和月亮都是天体</t>
+  </si>
+  <si>
+    <t>The sun, the stars and the moon are celestial bodies.</t>
+  </si>
+  <si>
+    <r>
+      <t>如果你想一月内完成那本书，最好现在就动手工作。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Better get going on that book if you want to finish it in a month.</t>
+  </si>
+  <si>
+    <r>
+      <t>一年有几个季节？一年有四季。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>How many seasons are there in a year? There are four seasons in a year.</t>
+  </si>
+  <si>
+    <r>
+      <t>今晚的菜单上有什么菜?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>What's on the menu tonight?</t>
+  </si>
+  <si>
+    <r>
+      <t>你认为我的新帽子怎么样?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>What do you think of my new hat?</t>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢和我妈妈聊天。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I like to chat with my mother.</t>
+  </si>
+  <si>
+    <r>
+      <t>四只脚的，我还是有爱可以给你</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>For those with four feet, I have love.</t>
+  </si>
+  <si>
+    <r>
+      <t>我们不是正在打扫房间。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>We are not cleaning the room.</t>
+  </si>
+  <si>
+    <r>
+      <t>我年老时谁来照顾我呢?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Who is to care for me when I'm old?</t>
+  </si>
+  <si>
+    <r>
+      <t>这些树每年结果子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>These trees fruit annually.</t>
+  </si>
+  <si>
+    <r>
+      <t>他们打伤了他的脸。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>They bashed his face in.</t>
+  </si>
+  <si>
+    <r>
+      <t>我很习惯吃中国菜。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I am used to eating Chinese food.</t>
+  </si>
+  <si>
+    <r>
+      <t>她年轻时是个有名的美人。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>She was a famous beauty in her youth.</t>
+  </si>
+  <si>
+    <r>
+      <t>他在这出戏里演哪个角儿？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>What's his role in this play?</t>
+  </si>
+  <si>
+    <t>role (play); horn; angle; unit of money (1/10 yuan); corner (Kangxi radical 148)</t>
+  </si>
+  <si>
+    <r>
+      <t>然后你再按一下鼻子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Then you press the nose again.</t>
+  </si>
+  <si>
+    <r>
+      <t>他的故事对他们起了作用。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>His story worked with them.</t>
+  </si>
+  <si>
+    <r>
+      <t>我们可以在星期五做周末体育报道。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>On Friday we do a weekend report on sports.</t>
+  </si>
+  <si>
+    <r>
+      <t>请你教我怎样骑自行车。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Teach me how to ride a bicycle.</t>
+  </si>
+  <si>
+    <r>
+      <t>我只有一个阿姨。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I only have one aunt.</t>
+  </si>
+  <si>
+    <r>
+      <t>事情的经过是这样的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>This is how it happened.</t>
+  </si>
+  <si>
+    <r>
+      <t>我同意你的意见。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I agree with you.</t>
+  </si>
+  <si>
+    <r>
+      <t>动物能思考吗?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Are animals able to think?</t>
+  </si>
+  <si>
+    <r>
+      <t>这些句子能同时为真吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Could these sentences be true together?</t>
+  </si>
+  <si>
+    <r>
+      <t>他们是很认真的。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>They were very serious.</t>
+  </si>
+  <si>
+    <r>
+      <t>他已经离开北京了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>He has left Beijing.</t>
+  </si>
+  <si>
+    <r>
+      <t>我喜欢这个。他看上去生气的样子。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I like this one. He looks angry.</t>
+  </si>
+  <si>
+    <r>
+      <t>除了苹果，他别的水果也吃。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>besides apples, he also eats other fruits.</t>
+  </si>
+  <si>
+    <r>
+      <t>我试着帮助他们。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I try to help them.</t>
+  </si>
+  <si>
+    <r>
+      <t>这个自行车五百多块钱。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Those bicycle costs over 500 yuan.</t>
+  </si>
+  <si>
+    <r>
+      <t>我不得不同意你的决定。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I cannot but agree to your decision.</t>
+  </si>
+  <si>
+    <r>
+      <t>下了几天雨后，太阳出来了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>The sun came through after days of rain.</t>
+  </si>
+  <si>
+    <r>
+      <t>我穿这个看起来胖吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Do I look fat in this?</t>
+  </si>
+  <si>
+    <r>
+      <t>这些学生的听力提高了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>The students have improved their listening.</t>
+  </si>
+  <si>
+    <r>
+      <t>她正在洗澡呢。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所以最好以起床就打开你房间里所有的灯。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>She is taking a shower.</t>
+  </si>
+  <si>
+    <t>Turn on all the lights in your room right after waking up.</t>
+  </si>
+  <si>
+    <r>
+      <t>我能看看你的护照?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>May I see your passport?</t>
+  </si>
+  <si>
+    <r>
+      <t>再不走我们开会就要迟到了。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>We'll be late for the meeting if we stay any longer.</t>
+  </si>
+  <si>
+    <r>
+      <t>每个人都来帮忙，这样做是件好事。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Everyone helped and it was good that they did.</t>
+  </si>
+  <si>
+    <r>
+      <t>前天我见过他，但后来再没见过他。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I see him the day before yesterday, but have not see him since.</t>
+  </si>
+  <si>
+    <r>
+      <t>你在电视上会看新闻节目么？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Do you watch the news on TV?</t>
+  </si>
+  <si>
+    <t>你经常和谁发短信？</t>
+  </si>
+  <si>
+    <t>Who do you often message?</t>
+  </si>
+  <si>
+    <t>我感冒了。把药吃了，吃完药后就会舒服些。</t>
+  </si>
+  <si>
+    <t>I have got a cold. Take some medicine, you will feel better after you take medicine.</t>
+  </si>
+  <si>
+    <r>
+      <t>我买了些香蕉。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I bought a few bananas.</t>
+  </si>
+  <si>
+    <t>我的回答是什么?</t>
+  </si>
+  <si>
+    <t>What was my response?</t>
+  </si>
+  <si>
+    <t>这是你的最好成绩吗？</t>
+  </si>
+  <si>
+    <t>Is this your best score?</t>
+  </si>
+  <si>
+    <r>
+      <t>你们都明白了吗？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Do you all understand ?</t>
+  </si>
+  <si>
+    <r>
+      <t>短你三块钱。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>I owe you three yuan.</t>
+  </si>
+  <si>
+    <r>
+      <t>在这一点上，相信我。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Trust me on this one.</t>
+  </si>
+  <si>
+    <r>
+      <t>他把碗重重地往桌上一放。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF212529"/>
+        <rFont val="Helvetica Neue"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>He plopped the bowl on the table.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3770,6 +4595,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3812,10 +4645,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3826,8 +4660,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4166,8 +5002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4190,10 +5026,10 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4207,16 +5043,16 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4227,19 +5063,19 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4253,16 +5089,16 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4273,19 +5109,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E5" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4299,16 +5135,16 @@
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4322,16 +5158,16 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E7" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4345,16 +5181,16 @@
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E8" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4365,19 +5201,19 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E9" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4388,19 +5224,19 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E10" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4411,19 +5247,19 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E11" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4437,16 +5273,16 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E12" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4460,16 +5296,16 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E13" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4480,19 +5316,19 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4506,16 +5342,16 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4526,19 +5362,19 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E16" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4552,16 +5388,16 @@
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E17" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4572,19 +5408,19 @@
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D18" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E18" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4598,16 +5434,16 @@
         <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E19" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4621,16 +5457,16 @@
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E20" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4644,16 +5480,16 @@
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E21" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4667,16 +5503,16 @@
         <v>24</v>
       </c>
       <c r="D22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4687,19 +5523,19 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D23" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E23" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4713,16 +5549,16 @@
         <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E24" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4733,19 +5569,19 @@
         <v>27</v>
       </c>
       <c r="C25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D25" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E25" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4756,19 +5592,19 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D26" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E26" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4779,19 +5615,19 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D27" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E27" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4805,16 +5641,16 @@
         <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E28" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4828,16 +5664,16 @@
         <v>31</v>
       </c>
       <c r="D29" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E29" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4848,19 +5684,19 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D30" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E30" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4871,19 +5707,19 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E31" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4894,19 +5730,19 @@
         <v>34</v>
       </c>
       <c r="C32" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D32" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E32" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4917,19 +5753,19 @@
         <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D33" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E33" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4940,19 +5776,19 @@
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E34" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4963,19 +5799,19 @@
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E35" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -4986,19 +5822,19 @@
         <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E36" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -5009,19 +5845,19 @@
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D37" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -5032,19 +5868,19 @@
         <v>40</v>
       </c>
       <c r="C38" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E38" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20" x14ac:dyDescent="0.2">
@@ -5058,19 +5894,19 @@
         <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E39" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -5081,13 +5917,19 @@
         <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E40" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>809</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -5098,13 +5940,19 @@
         <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E41" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>810</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>1153</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -5112,16 +5960,22 @@
         <v>44</v>
       </c>
       <c r="C42" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E42" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>811</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>1155</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -5132,13 +5986,19 @@
         <v>45</v>
       </c>
       <c r="D43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E43" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>812</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -5149,13 +6009,19 @@
         <v>46</v>
       </c>
       <c r="D44" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E44" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>813</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -5163,16 +6029,22 @@
         <v>47</v>
       </c>
       <c r="C45" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D45" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E45" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>814</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -5180,16 +6052,22 @@
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D46" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E46" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+        <v>815</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>1163</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -5200,13 +6078,19 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E47" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>816</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>1165</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -5217,13 +6101,19 @@
         <v>50</v>
       </c>
       <c r="D48" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E48" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+        <v>817</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -5231,16 +6121,22 @@
         <v>51</v>
       </c>
       <c r="C49" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D49" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E49" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+        <v>818</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>1169</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -5248,16 +6144,22 @@
         <v>52</v>
       </c>
       <c r="C50" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E50" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+        <v>819</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>1171</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5265,16 +6167,22 @@
         <v>53</v>
       </c>
       <c r="C51" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D51" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E51" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+        <v>820</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>1173</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5282,16 +6190,22 @@
         <v>54</v>
       </c>
       <c r="C52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D52" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E52" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+        <v>821</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5299,16 +6213,22 @@
         <v>55</v>
       </c>
       <c r="C53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D53" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E53" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+        <v>822</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>1177</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5316,16 +6236,22 @@
         <v>56</v>
       </c>
       <c r="C54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D54" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E54" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+        <v>823</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>1179</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5333,16 +6259,22 @@
         <v>57</v>
       </c>
       <c r="C55" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D55" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E55" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>1181</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5353,681 +6285,895 @@
         <v>58</v>
       </c>
       <c r="D56" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E56" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1185</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>1183</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E58" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+        <v>825</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E59" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+        <v>826</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>1188</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D60" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E60" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+        <v>827</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>1190</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D61" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E61" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+        <v>828</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D62" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E62" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>829</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>1194</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D63" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E63" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>830</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>1196</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E64" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>1198</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D65" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E65" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>832</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E66" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>833</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D67" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E67" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>834</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D68" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E68" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>835</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D69" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E69" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>836</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D70" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E70" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>837</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D71" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E71" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>838</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D72" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E72" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>839</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D73" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E73" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>840</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D74" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E74" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>841</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D75" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E75" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>842</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D76" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E76" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>843</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D77" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E77" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>844</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D78" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E78" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>845</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D79" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E79" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>846</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D80" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E80" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>847</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D81" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E81" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>848</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D82" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E82" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>849</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D83" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E83" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>850</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D84" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E84" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>851</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D85" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E85" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>852</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D86" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E86" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+        <v>853</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D87" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E87" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+        <v>854</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D88" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E88" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+        <v>855</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D89" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E89" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+        <v>856</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E90" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+        <v>857</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D91" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E91" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+        <v>858</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="20" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D92" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E92" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+        <v>859</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D93" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E93" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+        <v>860</v>
+      </c>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D94" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E94" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D95" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E95" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D96" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E96" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
@@ -6035,16 +7181,16 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D97" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E97" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
@@ -6052,16 +7198,16 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D98" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E98" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
@@ -6069,16 +7215,16 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D99" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E99" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -6086,16 +7232,16 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D100" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E100" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -6103,16 +7249,16 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E101" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -6120,16 +7266,16 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D102" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E102" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -6137,16 +7283,16 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D103" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E103" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -6154,16 +7300,16 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D104" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E104" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -6171,16 +7317,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D105" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E105" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -6188,16 +7334,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E106" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -6205,16 +7351,16 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D107" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E107" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -6222,16 +7368,16 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D108" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E108" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -6239,16 +7385,16 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D109" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E109" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -6256,16 +7402,16 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E110" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -6273,16 +7419,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D111" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E111" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -6290,16 +7436,16 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D112" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E112" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -6307,16 +7453,16 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D113" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E113" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -6324,16 +7470,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D114" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E114" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -6341,16 +7487,16 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D115" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E115" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -6358,16 +7504,16 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D116" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E116" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -6375,16 +7521,16 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D117" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E117" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -6392,16 +7538,16 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D118" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E118" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -6409,16 +7555,16 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D119" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E119" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -6426,16 +7572,16 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D120" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E120" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -6443,16 +7589,16 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D121" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E121" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -6460,16 +7606,16 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D122" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E122" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -6477,16 +7623,16 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D123" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E123" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -6494,16 +7640,16 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D124" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E124" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -6511,16 +7657,16 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E125" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -6528,16 +7674,16 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D126" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E126" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -6545,16 +7691,16 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C127" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D127" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E127" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6562,16 +7708,16 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D128" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E128" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
@@ -6579,16 +7725,16 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C129" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D129" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E129" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
@@ -6596,16 +7742,16 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D130" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E130" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
@@ -6613,16 +7759,16 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C131" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D131" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E131" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
@@ -6630,16 +7776,16 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C132" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D132" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E132" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
@@ -6647,16 +7793,16 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D133" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E133" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
@@ -6664,16 +7810,16 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D134" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E134" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
@@ -6681,16 +7827,16 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D135" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E135" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
@@ -6698,16 +7844,16 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D136" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E136" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
@@ -6715,16 +7861,16 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C137" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D137" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E137" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
@@ -6732,16 +7878,16 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D138" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E138" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
@@ -6749,16 +7895,16 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D139" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E139" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
@@ -6766,19 +7912,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C140" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D140" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E140" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
@@ -6786,16 +7932,16 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D141" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E141" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
@@ -6803,19 +7949,19 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D142" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E142" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
@@ -6823,16 +7969,16 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C143" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D143" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E143" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
@@ -6840,16 +7986,16 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E144" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
@@ -6857,16 +8003,16 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D145" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E145" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
@@ -6874,16 +8020,16 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C146" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D146" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E146" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
@@ -6891,16 +8037,16 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C147" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D147" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E147" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
@@ -6908,16 +8054,16 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C148" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D148" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E148" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
@@ -6925,16 +8071,16 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D149" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E149" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
@@ -6942,16 +8088,16 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C150" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D150" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E150" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
@@ -6959,16 +8105,16 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C151" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D151" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E151" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
@@ -6976,16 +8122,16 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D152" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E152" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
@@ -6993,16 +8139,16 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D153" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E153" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
@@ -7010,16 +8156,16 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D154" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E154" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
@@ -7027,16 +8173,16 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C155" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D155" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E155" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
@@ -7044,16 +8190,16 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D156" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E156" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
@@ -7061,16 +8207,16 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D157" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E157" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
@@ -7078,7 +8224,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -7086,16 +8232,16 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D159" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E159" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
@@ -7103,16 +8249,16 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D160" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E160" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
@@ -7120,16 +8266,16 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D161" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E161" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -7137,16 +8283,16 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D162" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E162" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -7154,7 +8300,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -7162,16 +8308,16 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C164" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D164" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E164" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -7179,16 +8325,16 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D165" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E165" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -7196,16 +8342,16 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D166" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E166" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -7213,16 +8359,16 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D167" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E167" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
@@ -7230,16 +8376,16 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D168" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E168" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -7247,7 +8393,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -7255,16 +8401,16 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D170" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E170" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -7272,16 +8418,16 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D171" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E171" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -7289,16 +8435,16 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D172" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E172" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -7306,16 +8452,16 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D173" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E173" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -7323,16 +8469,16 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D174" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E174" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -7340,7 +8486,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -7348,16 +8494,16 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D176" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E176" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -7365,7 +8511,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -7373,16 +8519,16 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D178" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E178" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -7390,16 +8536,16 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D179" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E179" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -7407,16 +8553,16 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D180" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E180" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -7424,16 +8570,16 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D181" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E181" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -7441,16 +8587,16 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C182" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D182" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E182" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
@@ -7458,16 +8604,16 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D183" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E183" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -7475,16 +8621,16 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D184" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E184" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -7492,16 +8638,16 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D185" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E185" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -7509,16 +8655,16 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D186" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E186" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -7526,16 +8672,16 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D187" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E187" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -7543,16 +8689,16 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D188" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E188" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -7560,16 +8706,16 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D189" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="E189" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
@@ -7577,16 +8723,16 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D190" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E190" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
@@ -7594,16 +8740,16 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D191" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E191" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
@@ -7611,16 +8757,16 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C192" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D192" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E192" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
@@ -7628,16 +8774,16 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C193" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D193" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E193" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
@@ -7645,7 +8791,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
@@ -7653,16 +8799,16 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D195" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E195" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
@@ -7670,16 +8816,16 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D196" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E196" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
@@ -7687,16 +8833,16 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D197" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E197" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
@@ -7704,16 +8850,16 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D198" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E198" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
@@ -7721,7 +8867,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
@@ -7729,16 +8875,16 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D200" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E200" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
@@ -7746,7 +8892,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
@@ -7754,7 +8900,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
@@ -7762,16 +8908,16 @@
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D203" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E203" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
@@ -7779,16 +8925,16 @@
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C204" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D204" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E204" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
@@ -7796,16 +8942,16 @@
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C205" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D205" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E205" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
@@ -7813,16 +8959,16 @@
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D206" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E206" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
@@ -7830,7 +8976,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
@@ -7838,16 +8984,16 @@
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D208" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E208" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
@@ -7855,19 +9001,19 @@
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D209" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E209" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F209" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
@@ -7875,16 +9021,16 @@
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D210" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E210" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
@@ -7892,16 +9038,16 @@
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D211" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E211" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
@@ -7909,16 +9055,16 @@
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D212" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E212" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
@@ -7926,16 +9072,16 @@
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C213" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D213" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E213" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
@@ -7943,16 +9089,16 @@
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D214" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E214" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
@@ -7960,16 +9106,16 @@
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D215" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E215" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
@@ -7977,16 +9123,16 @@
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C216" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D216" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E216" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
@@ -7994,16 +9140,16 @@
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D217" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E217" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
@@ -8011,16 +9157,16 @@
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D218" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E218" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
@@ -8028,16 +9174,16 @@
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D219" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E219" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
@@ -8045,16 +9191,16 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D220" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E220" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
@@ -8062,16 +9208,16 @@
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C221" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D221" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E221" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
@@ -8079,16 +9225,16 @@
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C222" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D222" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E222" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
@@ -8096,16 +9242,16 @@
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C223" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D223" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E223" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
@@ -8113,16 +9259,16 @@
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C224" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D224" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E224" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
@@ -8130,16 +9276,16 @@
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D225" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E225" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
@@ -8147,16 +9293,16 @@
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C226" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D226" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E226" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
@@ -8164,16 +9310,16 @@
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C227" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D227" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E227" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
@@ -8181,16 +9327,16 @@
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C228" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D228" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E228" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
@@ -8198,16 +9344,16 @@
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C229" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D229" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E229" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
@@ -8215,16 +9361,16 @@
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C230" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D230" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E230" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
@@ -8232,16 +9378,16 @@
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C231" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D231" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E231" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
@@ -8249,16 +9395,16 @@
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C232" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D232" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E232" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
@@ -8266,16 +9412,16 @@
         <v>231</v>
       </c>
       <c r="B233" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C233" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D233" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E233" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
@@ -8283,16 +9429,16 @@
         <v>232</v>
       </c>
       <c r="B234" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C234" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D234" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E234" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
@@ -8300,16 +9446,16 @@
         <v>233</v>
       </c>
       <c r="B235" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C235" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D235" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="E235" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
@@ -8317,16 +9463,16 @@
         <v>234</v>
       </c>
       <c r="B236" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C236" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D236" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E236" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
@@ -8334,16 +9480,16 @@
         <v>235</v>
       </c>
       <c r="B237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D237" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E237" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
@@ -8351,16 +9497,16 @@
         <v>236</v>
       </c>
       <c r="B238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C238" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D238" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E238" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
@@ -8368,16 +9514,16 @@
         <v>237</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C239" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D239" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="E239" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
@@ -8385,16 +9531,16 @@
         <v>238</v>
       </c>
       <c r="B240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C240" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D240" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E240" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
@@ -8402,16 +9548,16 @@
         <v>239</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D241" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E241" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
@@ -8419,16 +9565,16 @@
         <v>240</v>
       </c>
       <c r="B242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C242" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D242" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E242" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
@@ -8436,16 +9582,16 @@
         <v>241</v>
       </c>
       <c r="B243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C243" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D243" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E243" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
@@ -8453,16 +9599,16 @@
         <v>242</v>
       </c>
       <c r="B244" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C244" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D244" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E244" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
@@ -8470,16 +9616,16 @@
         <v>243</v>
       </c>
       <c r="B245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C245" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D245" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E245" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
@@ -8487,16 +9633,16 @@
         <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C246" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D246" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E246" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
@@ -8504,16 +9650,16 @@
         <v>245</v>
       </c>
       <c r="B247" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C247" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D247" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E247" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
@@ -8521,16 +9667,16 @@
         <v>246</v>
       </c>
       <c r="B248" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C248" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D248" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E248" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
@@ -8538,16 +9684,16 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C249" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D249" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E249" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
@@ -8555,16 +9701,16 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C250" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D250" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E250" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
@@ -8572,16 +9718,16 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C251" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D251" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E251" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
@@ -8589,16 +9735,16 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C252" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D252" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E252" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
@@ -8606,16 +9752,16 @@
         <v>251</v>
       </c>
       <c r="B253" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C253" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D253" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E253" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
@@ -8623,16 +9769,16 @@
         <v>252</v>
       </c>
       <c r="B254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C254" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D254" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E254" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
@@ -8640,16 +9786,16 @@
         <v>253</v>
       </c>
       <c r="B255" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C255" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D255" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E255" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
@@ -8657,16 +9803,16 @@
         <v>254</v>
       </c>
       <c r="B256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C256" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D256" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E256" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.2">
@@ -8674,16 +9820,16 @@
         <v>255</v>
       </c>
       <c r="B257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C257" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D257" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E257" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.2">
@@ -8691,16 +9837,16 @@
         <v>256</v>
       </c>
       <c r="B258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C258" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D258" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E258" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.2">
@@ -8708,16 +9854,16 @@
         <v>257</v>
       </c>
       <c r="B259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C259" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D259" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E259" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.2">
@@ -8725,16 +9871,16 @@
         <v>258</v>
       </c>
       <c r="B260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C260" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D260" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E260" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.2">
@@ -8742,16 +9888,16 @@
         <v>259</v>
       </c>
       <c r="B261" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C261" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D261" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E261" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.2">
@@ -8759,16 +9905,16 @@
         <v>260</v>
       </c>
       <c r="B262" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C262" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D262" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E262" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.2">
@@ -8776,16 +9922,16 @@
         <v>261</v>
       </c>
       <c r="B263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C263" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D263" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="E263" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.2">
@@ -8793,16 +9939,16 @@
         <v>262</v>
       </c>
       <c r="B264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C264" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D264" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E264" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.2">
@@ -8810,7 +9956,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.2">
@@ -8818,16 +9964,16 @@
         <v>264</v>
       </c>
       <c r="B266" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C266" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D266" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E266" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.2">
@@ -8835,16 +9981,16 @@
         <v>265</v>
       </c>
       <c r="B267" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C267" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D267" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E267" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.2">
@@ -8852,16 +9998,16 @@
         <v>266</v>
       </c>
       <c r="B268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C268" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D268" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E268" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.2">
@@ -8869,16 +10015,16 @@
         <v>267</v>
       </c>
       <c r="B269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C269" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D269" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E269" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.2">
@@ -8886,16 +10032,16 @@
         <v>268</v>
       </c>
       <c r="B270" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C270" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D270" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E270" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.2">
@@ -8903,16 +10049,16 @@
         <v>269</v>
       </c>
       <c r="B271" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C271" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D271" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E271" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.2">
@@ -8920,7 +10066,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -8928,16 +10074,16 @@
         <v>271</v>
       </c>
       <c r="B273" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C273" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D273" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E273" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
@@ -8945,16 +10091,16 @@
         <v>272</v>
       </c>
       <c r="B274" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C274" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D274" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E274" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
@@ -8962,16 +10108,16 @@
         <v>273</v>
       </c>
       <c r="B275" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C275" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D275" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E275" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
@@ -8979,16 +10125,16 @@
         <v>274</v>
       </c>
       <c r="B276" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C276" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D276" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E276" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
@@ -8996,16 +10142,16 @@
         <v>275</v>
       </c>
       <c r="B277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C277" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D277" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E277" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
@@ -9013,16 +10159,16 @@
         <v>276</v>
       </c>
       <c r="B278" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C278" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D278" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E278" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
@@ -9030,16 +10176,16 @@
         <v>277</v>
       </c>
       <c r="B279" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C279" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D279" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E279" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
@@ -9047,16 +10193,16 @@
         <v>278</v>
       </c>
       <c r="B280" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C280" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D280" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E280" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
@@ -9064,16 +10210,16 @@
         <v>279</v>
       </c>
       <c r="B281" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C281" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D281" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E281" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
@@ -9081,16 +10227,16 @@
         <v>280</v>
       </c>
       <c r="B282" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C282" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D282" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E282" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
@@ -9098,16 +10244,16 @@
         <v>281</v>
       </c>
       <c r="B283" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C283" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D283" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E283" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
@@ -9115,16 +10261,16 @@
         <v>282</v>
       </c>
       <c r="B284" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C284" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D284" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E284" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
@@ -9132,16 +10278,16 @@
         <v>283</v>
       </c>
       <c r="B285" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C285" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D285" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E285" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
@@ -9149,16 +10295,16 @@
         <v>284</v>
       </c>
       <c r="B286" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C286" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D286" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E286" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
@@ -9166,16 +10312,16 @@
         <v>285</v>
       </c>
       <c r="B287" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C287" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D287" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E287" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
@@ -9183,16 +10329,16 @@
         <v>286</v>
       </c>
       <c r="B288" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C288" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D288" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E288" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.2">
@@ -9200,16 +10346,16 @@
         <v>287</v>
       </c>
       <c r="B289" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C289" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D289" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E289" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.2">
@@ -9217,16 +10363,16 @@
         <v>288</v>
       </c>
       <c r="B290" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C290" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D290" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E290" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.2">
@@ -9234,16 +10380,16 @@
         <v>289</v>
       </c>
       <c r="B291" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C291" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D291" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E291" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.2">
@@ -9251,16 +10397,16 @@
         <v>290</v>
       </c>
       <c r="B292" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C292" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D292" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E292" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.2">
@@ -9268,16 +10414,16 @@
         <v>291</v>
       </c>
       <c r="B293" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C293" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D293" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E293" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.2">
@@ -9285,16 +10431,16 @@
         <v>292</v>
       </c>
       <c r="B294" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C294" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D294" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E294" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.2">
@@ -9302,16 +10448,16 @@
         <v>293</v>
       </c>
       <c r="B295" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C295" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D295" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E295" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.2">
@@ -9319,16 +10465,16 @@
         <v>294</v>
       </c>
       <c r="B296" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C296" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D296" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E296" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.2">
@@ -9336,16 +10482,16 @@
         <v>295</v>
       </c>
       <c r="B297" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C297" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D297" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E297" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.2">
@@ -9353,16 +10499,16 @@
         <v>296</v>
       </c>
       <c r="B298" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C298" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D298" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E298" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.2">
@@ -9370,16 +10516,16 @@
         <v>297</v>
       </c>
       <c r="B299" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C299" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D299" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E299" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.2">
@@ -9387,16 +10533,16 @@
         <v>298</v>
       </c>
       <c r="B300" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C300" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D300" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E300" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.2">
@@ -9404,16 +10550,16 @@
         <v>299</v>
       </c>
       <c r="B301" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C301" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D301" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E301" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.2">
@@ -9421,16 +10567,16 @@
         <v>300</v>
       </c>
       <c r="B302" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C302" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D302" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E302" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.2">
@@ -9438,16 +10584,16 @@
         <v>301</v>
       </c>
       <c r="B303" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C303" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D303" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E303" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.2">
@@ -9455,16 +10601,16 @@
         <v>302</v>
       </c>
       <c r="B304" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C304" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D304" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E304" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
@@ -9472,16 +10618,16 @@
         <v>303</v>
       </c>
       <c r="B305" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C305" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D305" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E305" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
@@ -9489,16 +10635,16 @@
         <v>304</v>
       </c>
       <c r="B306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C306" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D306" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E306" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
@@ -9506,16 +10652,16 @@
         <v>305</v>
       </c>
       <c r="B307" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C307" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D307" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E307" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
@@ -9523,16 +10669,16 @@
         <v>306</v>
       </c>
       <c r="B308" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C308" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D308" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E308" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
@@ -9540,16 +10686,16 @@
         <v>307</v>
       </c>
       <c r="B309" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C309" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D309" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E309" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
@@ -9557,16 +10703,16 @@
         <v>308</v>
       </c>
       <c r="B310" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C310" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D310" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E310" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
@@ -9574,16 +10720,16 @@
         <v>309</v>
       </c>
       <c r="B311" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C311" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D311" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E311" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
@@ -9591,16 +10737,16 @@
         <v>310</v>
       </c>
       <c r="B312" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C312" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D312" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E312" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
@@ -9608,16 +10754,16 @@
         <v>311</v>
       </c>
       <c r="B313" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C313" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D313" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="E313" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
@@ -9625,19 +10771,20 @@
         <v>312</v>
       </c>
       <c r="B314" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C314" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D314" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E314" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>